--- a/Task.xlsx
+++ b/Task.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,179 +471,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>织造社</t>
+          <t>大理石测试</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>百纳</t>
+          <t>大理石</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>D:\AIGC\混剪\织造社混剪\款式\百纳\视频</t>
+          <t>D:\AIGC\混剪\大理石测试原素材</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>织造社</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>本草纲目</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>D:\AIGC\混剪\织造社混剪\款式\本草纲目\视频</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>织造社</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>碧城</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>D:\AIGC\混剪\织造社混剪\款式\碧城\视频</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>织造社</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>点翠</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>D:\AIGC\混剪\织造社混剪\款式\点翠\视频</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>织造社</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>海风写生</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>D:\AIGC\混剪\织造社混剪\款式\海风写生\视频</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>织造社</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>花涧</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>D:\AIGC\混剪\织造社混剪\款式\花涧\视频</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>大理石</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大理石</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>D:\AIGC\混剪\爆款素材\爆款素材</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
         <v>1</v>
       </c>
     </row>
